--- a/storage/app/excel/MS.T-MASTER.xlsx
+++ b/storage/app/excel/MS.T-MASTER.xlsx
@@ -5,12 +5,10 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Data Siswa" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Users" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Ruangan" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="0" name="AGAMA" vbProcedure="false">'Data Siswa'!$I:$I</definedName>
@@ -34,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="84">
   <si>
     <t xml:space="preserve">NO</t>
   </si>
@@ -81,7 +79,7 @@
     <t xml:space="preserve">Majalengka</t>
   </si>
   <si>
-    <t xml:space="preserve">12-14-2006</t>
+    <t xml:space="preserve">14/12/2006</t>
   </si>
   <si>
     <t xml:space="preserve">Islam</t>
@@ -99,244 +97,193 @@
     <t xml:space="preserve">L</t>
   </si>
   <si>
+    <t xml:space="preserve">14/12/2007</t>
+  </si>
+  <si>
     <t xml:space="preserve">ALEX NANDAWIJAYA</t>
   </si>
   <si>
+    <t xml:space="preserve">14/12/2008</t>
+  </si>
+  <si>
     <t xml:space="preserve">ALYA NURFITRI CAHYANI</t>
   </si>
   <si>
+    <t xml:space="preserve">14/12/2009</t>
+  </si>
+  <si>
     <t xml:space="preserve">ANDINI NURFITRIANI</t>
   </si>
   <si>
+    <t xml:space="preserve">14/12/2010</t>
+  </si>
+  <si>
     <t xml:space="preserve">ARIFIN ILHAM</t>
   </si>
   <si>
+    <t xml:space="preserve">14/12/2011</t>
+  </si>
+  <si>
     <t xml:space="preserve">BILLAL FAUZAN</t>
   </si>
   <si>
+    <t xml:space="preserve">14/12/2012</t>
+  </si>
+  <si>
     <t xml:space="preserve">DERY PURNAMA NURDIYANSYAH</t>
   </si>
   <si>
+    <t xml:space="preserve">14/12/2013</t>
+  </si>
+  <si>
     <t xml:space="preserve">DIMAS ARDIANSAH</t>
   </si>
   <si>
+    <t xml:space="preserve">14/12/2014</t>
+  </si>
+  <si>
     <t xml:space="preserve">DWI MARTHA ARINDA</t>
   </si>
   <si>
+    <t xml:space="preserve">14/12/2015</t>
+  </si>
+  <si>
     <t xml:space="preserve">GILANG RAHMAT FIRDAUS</t>
   </si>
   <si>
+    <t xml:space="preserve">14/12/2016</t>
+  </si>
+  <si>
     <t xml:space="preserve">KHEISYA AGUSTINA PUTRI</t>
   </si>
   <si>
+    <t xml:space="preserve">14/12/2017</t>
+  </si>
+  <si>
     <t xml:space="preserve">LIA MELIA</t>
   </si>
   <si>
+    <t xml:space="preserve">14/12/2018</t>
+  </si>
+  <si>
     <t xml:space="preserve">M.AZIS KAMALUDIN</t>
   </si>
   <si>
+    <t xml:space="preserve">14/12/2019</t>
+  </si>
+  <si>
     <t xml:space="preserve">MELANI LARAS SUCI</t>
   </si>
   <si>
+    <t xml:space="preserve">14/12/2020</t>
+  </si>
+  <si>
     <t xml:space="preserve">MILA SAPINA KHOERUNISA</t>
   </si>
   <si>
+    <t xml:space="preserve">14/12/2021</t>
+  </si>
+  <si>
     <t xml:space="preserve">MONICA LEKSANDRIANA</t>
   </si>
   <si>
+    <t xml:space="preserve">14/12/2022</t>
+  </si>
+  <si>
     <t xml:space="preserve">MUHAMAD IKBAL NUR RAMDANI</t>
   </si>
   <si>
+    <t xml:space="preserve">14/12/2023</t>
+  </si>
+  <si>
     <t xml:space="preserve">MUHAMMAD AZRIEL AL`GHIFARI NUGRAHA</t>
   </si>
   <si>
+    <t xml:space="preserve">14/12/2024</t>
+  </si>
+  <si>
     <t xml:space="preserve">MUHAMMAD MALIK MAULANA</t>
   </si>
   <si>
+    <t xml:space="preserve">14/12/2025</t>
+  </si>
+  <si>
     <t xml:space="preserve">NAILA SYAHIBAH</t>
   </si>
   <si>
+    <t xml:space="preserve">14/12/2026</t>
+  </si>
+  <si>
     <t xml:space="preserve">NISA LISTIANI</t>
   </si>
   <si>
+    <t xml:space="preserve">14/12/2027</t>
+  </si>
+  <si>
     <t xml:space="preserve">NISA NOVIYANTI</t>
   </si>
   <si>
+    <t xml:space="preserve">14/12/2028</t>
+  </si>
+  <si>
     <t xml:space="preserve">NOVA NUR FITRIA AZHARI</t>
   </si>
   <si>
+    <t xml:space="preserve">14/12/2029</t>
+  </si>
+  <si>
     <t xml:space="preserve">NURUL HAMIM</t>
   </si>
   <si>
+    <t xml:space="preserve">14/12/2030</t>
+  </si>
+  <si>
     <t xml:space="preserve">RAISYA JULIA RIANI</t>
   </si>
   <si>
+    <t xml:space="preserve">14/12/2031</t>
+  </si>
+  <si>
     <t xml:space="preserve">RAZFA YOANSYAH FIRDAUS</t>
   </si>
   <si>
+    <t xml:space="preserve">14/12/2032</t>
+  </si>
+  <si>
     <t xml:space="preserve">SABILA KIRANISHA</t>
   </si>
   <si>
+    <t xml:space="preserve">14/12/2033</t>
+  </si>
+  <si>
     <t xml:space="preserve">SABRINA RHEVA PRASASTI RASHA</t>
   </si>
   <si>
+    <t xml:space="preserve">14/12/2034</t>
+  </si>
+  <si>
     <t xml:space="preserve">SANDY ARIF JULIAN</t>
   </si>
   <si>
+    <t xml:space="preserve">14/12/2035</t>
+  </si>
+  <si>
     <t xml:space="preserve">SITI NURAENI</t>
   </si>
   <si>
+    <t xml:space="preserve">14/12/2036</t>
+  </si>
+  <si>
     <t xml:space="preserve">TIARA RAHAYU</t>
   </si>
   <si>
+    <t xml:space="preserve">14/12/2037</t>
+  </si>
+  <si>
     <t xml:space="preserve">WILDAN FIRDAUS</t>
   </si>
   <si>
-    <t xml:space="preserve">NAME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMAIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PASSWORD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">smkn1maja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 TE 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 TE 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 TE 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 TE 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 PPLG 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 PPLG 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 PPLG 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 PPLG 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 TJKT 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 TJKT 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 TJKT 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 TJKT 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 AT 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 AT 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 AT 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 AT 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 TAV 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 TAV 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 TAV 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 TKJ 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 TKJ 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 TKJ 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 TKJ 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 RPL 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 RPL 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 RPL 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 ATPH 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 ATPH 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 ATPH 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 ATPH 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 TAV 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 TAV 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 TKJ 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 TKJ 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 TKJ 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 RPL 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 RPL 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 RPL 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 RPL 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 ATPH 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 ATPH 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 ATPH 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 ATPH 4</t>
+    <t xml:space="preserve">14/12/2038</t>
   </si>
 </sst>
 </file>
@@ -421,7 +368,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -450,18 +397,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,11 +416,11 @@
   </sheetPr>
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I6" activeCellId="1" sqref="B2:B45 I6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13"/>
@@ -537,7 +472,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="n">
         <v>1</v>
       </c>
@@ -599,7 +534,7 @@
         <v>14</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>16</v>
@@ -629,7 +564,7 @@
         <v>102223249</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>20</v>
@@ -638,7 +573,7 @@
         <v>14</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>16</v>
@@ -668,7 +603,7 @@
         <v>102223250</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>13</v>
@@ -677,7 +612,7 @@
         <v>14</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>16</v>
@@ -707,7 +642,7 @@
         <v>102223251</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>13</v>
@@ -716,7 +651,7 @@
         <v>14</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>16</v>
@@ -746,7 +681,7 @@
         <v>102223252</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>20</v>
@@ -755,7 +690,7 @@
         <v>14</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>16</v>
@@ -785,7 +720,7 @@
         <v>102223253</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>20</v>
@@ -794,7 +729,7 @@
         <v>14</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>16</v>
@@ -824,7 +759,7 @@
         <v>102223254</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>20</v>
@@ -833,7 +768,7 @@
         <v>14</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>16</v>
@@ -863,7 +798,7 @@
         <v>102223255</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>20</v>
@@ -872,7 +807,7 @@
         <v>14</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>16</v>
@@ -902,7 +837,7 @@
         <v>102223256</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>13</v>
@@ -911,7 +846,7 @@
         <v>14</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>16</v>
@@ -941,7 +876,7 @@
         <v>102223257</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>20</v>
@@ -950,7 +885,7 @@
         <v>14</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>16</v>
@@ -980,7 +915,7 @@
         <v>102223259</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>13</v>
@@ -989,7 +924,7 @@
         <v>14</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>16</v>
@@ -1019,7 +954,7 @@
         <v>102223260</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>13</v>
@@ -1028,7 +963,7 @@
         <v>14</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>16</v>
@@ -1058,7 +993,7 @@
         <v>102223261</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>20</v>
@@ -1067,7 +1002,7 @@
         <v>14</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>16</v>
@@ -1097,7 +1032,7 @@
         <v>102223262</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>13</v>
@@ -1106,7 +1041,7 @@
         <v>14</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>16</v>
@@ -1136,7 +1071,7 @@
         <v>102223263</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>13</v>
@@ -1145,7 +1080,7 @@
         <v>14</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>16</v>
@@ -1175,7 +1110,7 @@
         <v>102223264</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>13</v>
@@ -1184,7 +1119,7 @@
         <v>14</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>16</v>
@@ -1214,7 +1149,7 @@
         <v>102223265</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>20</v>
@@ -1223,7 +1158,7 @@
         <v>14</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>16</v>
@@ -1253,7 +1188,7 @@
         <v>102223266</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>20</v>
@@ -1262,7 +1197,7 @@
         <v>14</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>16</v>
@@ -1292,7 +1227,7 @@
         <v>102223268</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>20</v>
@@ -1301,7 +1236,7 @@
         <v>14</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>16</v>
@@ -1331,7 +1266,7 @@
         <v>102223269</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>13</v>
@@ -1340,7 +1275,7 @@
         <v>14</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>16</v>
@@ -1370,7 +1305,7 @@
         <v>102223270</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>13</v>
@@ -1379,7 +1314,7 @@
         <v>14</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>16</v>
@@ -1409,7 +1344,7 @@
         <v>102223271</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>13</v>
@@ -1418,7 +1353,7 @@
         <v>14</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>16</v>
@@ -1448,7 +1383,7 @@
         <v>102223272</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>13</v>
@@ -1457,7 +1392,7 @@
         <v>14</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>16</v>
@@ -1487,7 +1422,7 @@
         <v>102223273</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>20</v>
@@ -1496,7 +1431,7 @@
         <v>14</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>16</v>
@@ -1526,7 +1461,7 @@
         <v>102223274</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>13</v>
@@ -1535,7 +1470,7 @@
         <v>14</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>16</v>
@@ -1565,7 +1500,7 @@
         <v>102223275</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>20</v>
@@ -1574,7 +1509,7 @@
         <v>14</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>16</v>
@@ -1604,7 +1539,7 @@
         <v>102223276</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>13</v>
@@ -1613,7 +1548,7 @@
         <v>14</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>16</v>
@@ -1643,7 +1578,7 @@
         <v>102223277</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>13</v>
@@ -1652,7 +1587,7 @@
         <v>14</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>16</v>
@@ -1682,7 +1617,7 @@
         <v>102223278</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>20</v>
@@ -1691,7 +1626,7 @@
         <v>14</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>16</v>
@@ -1721,7 +1656,7 @@
         <v>102223279</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>13</v>
@@ -1730,7 +1665,7 @@
         <v>14</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>16</v>
@@ -1760,7 +1695,7 @@
         <v>102223280</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>13</v>
@@ -1769,7 +1704,7 @@
         <v>14</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>16</v>
@@ -1799,7 +1734,7 @@
         <v>102223281</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>20</v>
@@ -1808,7 +1743,7 @@
         <v>14</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>16</v>
@@ -1826,8 +1761,8 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="L2:L34" type="list">
-      <formula1>#REF!</formula1>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L1:L1034" type="none">
+      <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -1839,1180 +1774,4 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D45"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="1" sqref="B2:B45 C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="29.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.29"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="str">
-        <f aca="false">Ruangan!A2</f>
-        <v>10 TE 1</v>
-      </c>
-      <c r="C2" s="7" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(B2," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>10te1@smkn1maja.sch.id</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="str">
-        <f aca="false">Ruangan!A3</f>
-        <v>10 TE 2</v>
-      </c>
-      <c r="C3" s="1" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(B3," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>10te2@smkn1maja.sch.id</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="str">
-        <f aca="false">Ruangan!A4</f>
-        <v>10 TE 3</v>
-      </c>
-      <c r="C4" s="1" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(B4," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>10te3@smkn1maja.sch.id</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="str">
-        <f aca="false">Ruangan!A5</f>
-        <v>10 TE 4</v>
-      </c>
-      <c r="C5" s="1" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(B5," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>10te4@smkn1maja.sch.id</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="str">
-        <f aca="false">Ruangan!A6</f>
-        <v>10 PPLG 1</v>
-      </c>
-      <c r="C6" s="1" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(B6," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>10pplg1@smkn1maja.sch.id</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="str">
-        <f aca="false">Ruangan!A7</f>
-        <v>10 PPLG 2</v>
-      </c>
-      <c r="C7" s="1" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(B7," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>10pplg2@smkn1maja.sch.id</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="str">
-        <f aca="false">Ruangan!A8</f>
-        <v>10 PPLG 3</v>
-      </c>
-      <c r="C8" s="1" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(B8," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>10pplg3@smkn1maja.sch.id</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="str">
-        <f aca="false">Ruangan!A9</f>
-        <v>10 PPLG 4</v>
-      </c>
-      <c r="C9" s="1" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(B9," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>10pplg4@smkn1maja.sch.id</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="str">
-        <f aca="false">Ruangan!A10</f>
-        <v>10 TJKT 1</v>
-      </c>
-      <c r="C10" s="1" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(B10," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>10tjkt1@smkn1maja.sch.id</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="str">
-        <f aca="false">Ruangan!A11</f>
-        <v>10 TJKT 2</v>
-      </c>
-      <c r="C11" s="1" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(B11," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>10tjkt2@smkn1maja.sch.id</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="str">
-        <f aca="false">Ruangan!A12</f>
-        <v>10 TJKT 3</v>
-      </c>
-      <c r="C12" s="1" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(B12," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>10tjkt3@smkn1maja.sch.id</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="str">
-        <f aca="false">Ruangan!A13</f>
-        <v>10 TJKT 4</v>
-      </c>
-      <c r="C13" s="1" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(B13," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>10tjkt4@smkn1maja.sch.id</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="str">
-        <f aca="false">Ruangan!A14</f>
-        <v>10 AT 1</v>
-      </c>
-      <c r="C14" s="1" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(B14," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>10at1@smkn1maja.sch.id</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="str">
-        <f aca="false">Ruangan!A15</f>
-        <v>10 AT 2</v>
-      </c>
-      <c r="C15" s="1" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(B15," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>10at2@smkn1maja.sch.id</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="str">
-        <f aca="false">Ruangan!A16</f>
-        <v>10 AT 3</v>
-      </c>
-      <c r="C16" s="1" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(B16," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>10at3@smkn1maja.sch.id</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="str">
-        <f aca="false">Ruangan!A17</f>
-        <v>10 AT 4</v>
-      </c>
-      <c r="C17" s="1" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(B17," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>10at4@smkn1maja.sch.id</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="str">
-        <f aca="false">Ruangan!A18</f>
-        <v>11 TAV 1</v>
-      </c>
-      <c r="C18" s="1" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(B18," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>11tav1@smkn1maja.sch.id</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="str">
-        <f aca="false">Ruangan!A19</f>
-        <v>11 TAV 2</v>
-      </c>
-      <c r="C19" s="1" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(B19," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>11tav2@smkn1maja.sch.id</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="str">
-        <f aca="false">Ruangan!A20</f>
-        <v>11 TAV 3</v>
-      </c>
-      <c r="C20" s="1" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(B20," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>11tav3@smkn1maja.sch.id</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="str">
-        <f aca="false">Ruangan!A21</f>
-        <v>11 TKJ 1</v>
-      </c>
-      <c r="C21" s="1" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(B21," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>11tkj1@smkn1maja.sch.id</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="str">
-        <f aca="false">Ruangan!A22</f>
-        <v>11 TKJ 2</v>
-      </c>
-      <c r="C22" s="1" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(B22," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>11tkj2@smkn1maja.sch.id</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="str">
-        <f aca="false">Ruangan!A23</f>
-        <v>11 TKJ 3</v>
-      </c>
-      <c r="C23" s="1" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(B23," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>11tkj3@smkn1maja.sch.id</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="str">
-        <f aca="false">Ruangan!A24</f>
-        <v>11 TKJ 4</v>
-      </c>
-      <c r="C24" s="1" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(B24," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>11tkj4@smkn1maja.sch.id</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="str">
-        <f aca="false">Ruangan!A25</f>
-        <v>11 RPL 1</v>
-      </c>
-      <c r="C25" s="1" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(B25," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>11rpl1@smkn1maja.sch.id</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1" t="str">
-        <f aca="false">Ruangan!A26</f>
-        <v>11 RPL 2</v>
-      </c>
-      <c r="C26" s="1" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(B26," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>11rpl2@smkn1maja.sch.id</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1" t="str">
-        <f aca="false">Ruangan!A27</f>
-        <v>11 RPL 3</v>
-      </c>
-      <c r="C27" s="1" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(B27," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>11rpl3@smkn1maja.sch.id</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1" t="str">
-        <f aca="false">Ruangan!A28</f>
-        <v>11 RPL 4</v>
-      </c>
-      <c r="C28" s="1" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(B28," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>11rpl4@smkn1maja.sch.id</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1" t="str">
-        <f aca="false">Ruangan!A29</f>
-        <v>11 ATPH 1</v>
-      </c>
-      <c r="C29" s="1" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(B29," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>11atph1@smkn1maja.sch.id</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1" t="str">
-        <f aca="false">Ruangan!A30</f>
-        <v>11 ATPH 2</v>
-      </c>
-      <c r="C30" s="1" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(B30," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>11atph2@smkn1maja.sch.id</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1" t="str">
-        <f aca="false">Ruangan!A31</f>
-        <v>11 ATPH 3</v>
-      </c>
-      <c r="C31" s="1" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(B31," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>11atph3@smkn1maja.sch.id</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1" t="str">
-        <f aca="false">Ruangan!A32</f>
-        <v>11 ATPH 4</v>
-      </c>
-      <c r="C32" s="1" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(B32," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>11atph4@smkn1maja.sch.id</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1" t="str">
-        <f aca="false">Ruangan!A33</f>
-        <v>12 TAV 1</v>
-      </c>
-      <c r="C33" s="1" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(B33," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>12tav1@smkn1maja.sch.id</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1" t="str">
-        <f aca="false">Ruangan!A34</f>
-        <v>12 TAV 2</v>
-      </c>
-      <c r="C34" s="1" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(B34," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>12tav2@smkn1maja.sch.id</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B35" s="1" t="str">
-        <f aca="false">Ruangan!A35</f>
-        <v>12 TKJ 1</v>
-      </c>
-      <c r="C35" s="1" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(B35," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>12tkj1@smkn1maja.sch.id</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B36" s="1" t="str">
-        <f aca="false">Ruangan!A36</f>
-        <v>12 TKJ 2</v>
-      </c>
-      <c r="C36" s="1" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(B36," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>12tkj2@smkn1maja.sch.id</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B37" s="1" t="str">
-        <f aca="false">Ruangan!A37</f>
-        <v>12 TKJ 3</v>
-      </c>
-      <c r="C37" s="1" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(B37," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>12tkj3@smkn1maja.sch.id</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B38" s="1" t="str">
-        <f aca="false">Ruangan!A38</f>
-        <v>12 RPL 1</v>
-      </c>
-      <c r="C38" s="1" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(B38," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>12rpl1@smkn1maja.sch.id</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B39" s="1" t="str">
-        <f aca="false">Ruangan!A39</f>
-        <v>12 RPL 2</v>
-      </c>
-      <c r="C39" s="1" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(B39," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>12rpl2@smkn1maja.sch.id</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B40" s="1" t="str">
-        <f aca="false">Ruangan!A40</f>
-        <v>12 RPL 3</v>
-      </c>
-      <c r="C40" s="1" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(B40," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>12rpl3@smkn1maja.sch.id</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B41" s="1" t="str">
-        <f aca="false">Ruangan!A41</f>
-        <v>12 RPL 4</v>
-      </c>
-      <c r="C41" s="1" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(B41," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>12rpl4@smkn1maja.sch.id</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B42" s="1" t="str">
-        <f aca="false">Ruangan!A42</f>
-        <v>12 ATPH 1</v>
-      </c>
-      <c r="C42" s="1" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(B42," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>12atph1@smkn1maja.sch.id</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B43" s="1" t="str">
-        <f aca="false">Ruangan!A43</f>
-        <v>12 ATPH 2</v>
-      </c>
-      <c r="C43" s="1" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(B43," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>12atph2@smkn1maja.sch.id</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B44" s="1" t="str">
-        <f aca="false">Ruangan!A44</f>
-        <v>12 ATPH 3</v>
-      </c>
-      <c r="C44" s="1" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(B44," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>12atph3@smkn1maja.sch.id</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B45" s="1" t="str">
-        <f aca="false">Ruangan!A45</f>
-        <v>12 ATPH 4</v>
-      </c>
-      <c r="C45" s="1" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(B45," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>12atph4@smkn1maja.sch.id</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B45"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B45"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="0" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(A2," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>10te1@smkn1maja.sch.id</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="0" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(A3," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>10te2@smkn1maja.sch.id</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="0" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(A4," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>10te3@smkn1maja.sch.id</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="0" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(A5," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>10te4@smkn1maja.sch.id</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="0" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(A6," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>10pplg1@smkn1maja.sch.id</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="0" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(A7," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>10pplg2@smkn1maja.sch.id</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="0" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(A8," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>10pplg3@smkn1maja.sch.id</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="0" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(A9," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>10pplg4@smkn1maja.sch.id</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="0" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(A10," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>10tjkt1@smkn1maja.sch.id</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="0" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(A11," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>10tjkt2@smkn1maja.sch.id</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="0" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(A12," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>10tjkt3@smkn1maja.sch.id</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="0" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(A13," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>10tjkt4@smkn1maja.sch.id</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" s="0" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(A14," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>10at1@smkn1maja.sch.id</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" s="0" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(A15," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>10at2@smkn1maja.sch.id</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" s="0" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(A16," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>10at3@smkn1maja.sch.id</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B17" s="0" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(A17," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>10at4@smkn1maja.sch.id</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B18" s="0" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(A18," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>11tav1@smkn1maja.sch.id</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19" s="0" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(A19," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>11tav2@smkn1maja.sch.id</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B20" s="0" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(A20," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>11tav3@smkn1maja.sch.id</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" s="0" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(A21," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>11tkj1@smkn1maja.sch.id</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B22" s="0" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(A22," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>11tkj2@smkn1maja.sch.id</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B23" s="0" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(A23," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>11tkj3@smkn1maja.sch.id</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24" s="0" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(A24," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>11tkj4@smkn1maja.sch.id</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="0" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(A25," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>11rpl1@smkn1maja.sch.id</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B26" s="0" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(A26," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>11rpl2@smkn1maja.sch.id</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B27" s="0" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(A27," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>11rpl3@smkn1maja.sch.id</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="B28" s="0" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(A28," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>11rpl4@smkn1maja.sch.id</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B29" s="0" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(A29," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>11atph1@smkn1maja.sch.id</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B30" s="0" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(A30," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>11atph2@smkn1maja.sch.id</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B31" s="0" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(A31," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>11atph3@smkn1maja.sch.id</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B32" s="0" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(A32," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>11atph4@smkn1maja.sch.id</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B33" s="0" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(A33," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>12tav1@smkn1maja.sch.id</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B34" s="0" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(A34," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>12tav2@smkn1maja.sch.id</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B35" s="0" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(A35," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>12tkj1@smkn1maja.sch.id</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B36" s="0" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(A36," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>12tkj2@smkn1maja.sch.id</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B37" s="0" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(A37," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>12tkj3@smkn1maja.sch.id</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B38" s="0" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(A38," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>12rpl1@smkn1maja.sch.id</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B39" s="0" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(A39," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>12rpl2@smkn1maja.sch.id</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B40" s="0" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(A40," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>12rpl3@smkn1maja.sch.id</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B41" s="0" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(A41," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>12rpl4@smkn1maja.sch.id</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B42" s="0" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(A42," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>12atph1@smkn1maja.sch.id</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B43" s="0" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(A43," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>12atph2@smkn1maja.sch.id</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="B44" s="0" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(A44," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>12atph3@smkn1maja.sch.id</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B45" s="0" t="str">
-        <f aca="false">LOWER(SUBSTITUTE(A45," ", "") &amp; "@smkn1maja.sch.id")</f>
-        <v>12atph4@smkn1maja.sch.id</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/storage/app/excel/MS.T-MASTER.xlsx
+++ b/storage/app/excel/MS.T-MASTER.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data Siswa" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Tenaga Pendidik" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="0" name="AGAMA" vbProcedure="false">'Data Siswa'!$I:$I</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="187">
   <si>
     <t xml:space="preserve">NO</t>
   </si>
@@ -284,6 +285,315 @@
   </si>
   <si>
     <t xml:space="preserve">14/12/2038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAPEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hj. Aan Janah, S.Pd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19640721 198703 2 006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kimia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14/12/1985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Firman Herdiana Kusumah, S.Pd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2039768669130263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informatika</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amir Saripudin, S.Pd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19680504 202121 1 001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seni Budaya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nano Setiono, S.T.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19741120 200901 1 001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fisika</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sri Wijiati, S.IP.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19760723 200801 2 003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pendidikan Kewarganegaraan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chintia Oktaviany, S.Pd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5352769670230173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sejarah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yeti Rosmiati, S.Pd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7940759661300032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pendidikan Agama Islam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eti Rushayati, S.Pd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19700201 200701 2 013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pendidikan Jasmani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rahmawati Fauziah, S.Pd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19870211 201101 2 001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bimbingan Konseling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maman Tarkiman, S.T.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3846770671130152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produktif TKJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dede Yati Ratnawati, S.Pd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19830214 201001 2 016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matematika</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wiji Rahayu, S.Hut.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19730831 200801 2 003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dali Setiadi, S.P., M.P.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19690613 200801 1 003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produktif ATPH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deniar Darojatun Yakti, S.Pd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19781212 200501 1 007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pendidikan Kewirausahaan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dede Sukmana, S.Pd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19811013 200901 1 004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bahasa Indonesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lili Kurniadi, S.Pd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19640902 200701 1 008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julaeha, S.Pd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19720101 199802 2 005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dzikry Imaduddin Shoimun, S.Pd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6653771672130112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H. Kosin, S.Pd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19640511 199002 1 003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kusnan, S.Pd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19640424 198610 1 004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maman, S.T.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19820520 202221 1 012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produktif RPL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rinrin Fitriani Lestari, S.T.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19860607 202221 2 022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Susan Susanti, S.Pd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19920925 202221 2 008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abdilah Sabiq, M.Pd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9137760661200023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bahasa Inggris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cucu Suciati, S.Pd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4852759660300002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Titin Nurhotimah, S.P.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19940319 202221 2 015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Idik Tarsidi, S.Pd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8743757659110042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pendidikan Lingkungan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agus Darmawan, S.P.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19720814 202121 1 002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tata Subagjadinata, S.T.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19790719 202221 1 008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produktif TAV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pipit Puspitasari, S.S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19761031 200901 2 003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bahasa Sunda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asep Sudiana, S.Pd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19660403 200701 1 019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suryaman, S.P.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6258769670130200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martanti Indah Lestari, S.Pd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8646760661300062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hj. Yeyet Rohayati, S.Pd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19710814 199402 2 001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hj. Nia Anitasari, S.Pd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19770102 200604 2 011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratna Dewi, S.Pd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2436765666230212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hj. Mimin Aminah, S.Pd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19710615 200012 2 002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sri Nurlianti, S.P.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19860414 202221 2 024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ika Kusika, S.P.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19761003 202221 1 002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pendi Supendi, S.TP.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19780508 200901 1 003</t>
   </si>
 </sst>
 </file>
@@ -334,12 +644,19 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -368,7 +685,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -397,6 +714,26 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,8 +753,8 @@
   </sheetPr>
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:H34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1774,4 +2111,1104 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H41"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="32.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="25.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="28.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="20.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="3.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="17.32"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="8" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="8" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="8" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="8" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="8" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="8" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="8" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="8" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="8" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="8" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="8" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="8" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="8" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="8" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="8" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="8" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/storage/app/excel/MS.T-MASTER.xlsx
+++ b/storage/app/excel/MS.T-MASTER.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Data Siswa" sheetId="1" state="visible" r:id="rId2"/>
@@ -753,8 +753,8 @@
   </sheetPr>
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2120,8 +2120,8 @@
   </sheetPr>
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/storage/app/excel/MS.T-MASTER.xlsx
+++ b/storage/app/excel/MS.T-MASTER.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Data Siswa" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Tenaga Pendidik" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Tenaga Kependidikan" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="0" name="AGAMA" vbProcedure="false">'Data Siswa'!$I:$I</definedName>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="191">
   <si>
     <t xml:space="preserve">NO</t>
   </si>
@@ -594,6 +595,18 @@
   </si>
   <si>
     <t xml:space="preserve">19780508 200901 1 003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JABATAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">083899xxx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tata Usaha</t>
   </si>
 </sst>
 </file>
@@ -685,7 +698,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -734,6 +747,22 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -753,7 +782,7 @@
   </sheetPr>
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -2121,7 +2150,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3211,4 +3240,137 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="12" width="3.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.41"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="12" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>